--- a/tests/data/desired/internalsortreport.xlsx
+++ b/tests/data/desired/internalsortreport.xlsx
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="151">
+  <fonts count="187">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -296,6 +296,222 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="20D020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
       <u val="none"/>
     </font>
     <font>
@@ -1128,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -1280,6 +1496,42 @@
     <xf numFmtId="0" fontId="148" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="149" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="150" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="151" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="153" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="155" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="156" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="157" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="159" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="160" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="161" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="163" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="165" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="167" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="169" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="171" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="173" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="175" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="176" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="177" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="178" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="179" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="180" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="181" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="182" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="183" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="185" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="186" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1384,7 +1636,7 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="D5" t="s" s="2">
@@ -1410,7 +1662,7 @@
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="D6" t="s" s="2">
@@ -1436,7 +1688,7 @@
       <c r="B7" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="D7" t="s" s="2">
@@ -1462,7 +1714,7 @@
       <c r="B8" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="D8" t="s" s="2">
@@ -1595,7 +1847,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="82">
+      <c r="A2" t="n" s="94">
         <v>3.0</v>
       </c>
       <c r="B2" t="n">
@@ -1607,283 +1859,283 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="83">
+      <c r="E2" t="s" s="95">
         <v>8</v>
       </c>
-      <c r="F2" t="s" s="84">
+      <c r="F2" t="s" s="96">
         <v>9</v>
       </c>
-      <c r="G2" t="n" s="85">
+      <c r="G2" t="n" s="97">
         <v>11.0</v>
       </c>
-      <c r="H2" t="s" s="86">
+      <c r="H2" t="s" s="98">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="87">
+      <c r="I2" t="s" s="99">
         <v>11</v>
       </c>
-      <c r="J2" t="n" s="88">
+      <c r="J2" t="n" s="100">
         <v>21.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="89">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n" s="101">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n" s="102">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="103">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="104">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="90">
+      <c r="E3" t="s" s="105">
         <v>38</v>
       </c>
-      <c r="F3" t="s" s="91">
+      <c r="F3" t="s" s="106">
         <v>39</v>
       </c>
-      <c r="G3" t="n" s="92">
+      <c r="G3" t="n" s="107">
         <v>11.0</v>
       </c>
-      <c r="H3" t="s" s="93">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="94">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="95">
+      <c r="H3" t="s" s="108">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="109">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="110">
         <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="96">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n" s="111">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="112">
         <v>2.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="n" s="113">
         <v>11.0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="114">
         <v>36</v>
       </c>
-      <c r="E4" t="s" s="97">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="98">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="99">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s" s="100">
+      <c r="E4" t="s" s="115">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="116">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="117">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s" s="118">
         <v>38</v>
       </c>
-      <c r="I4" t="s" s="101">
+      <c r="I4" t="s" s="119">
         <v>39</v>
       </c>
-      <c r="J4" t="n" s="102">
+      <c r="J4" t="n" s="120">
         <v>21.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="103">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="n" s="121">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="s" s="123">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="124">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="105">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="106">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s" s="107">
+      <c r="E5" t="s" s="125">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="126">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="127">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="128">
         <v>40</v>
       </c>
-      <c r="I5" t="s" s="108">
+      <c r="I5" t="s" s="129">
         <v>39</v>
       </c>
-      <c r="J5" t="n" s="109">
+      <c r="J5" t="n" s="130">
         <v>21.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="110">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n" s="131">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="132">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n" s="133">
         <v>11.0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="134">
         <v>36</v>
       </c>
-      <c r="E6" t="s" s="111">
+      <c r="E6" t="s" s="135">
         <v>40</v>
       </c>
-      <c r="F6" t="s" s="112">
+      <c r="F6" t="s" s="136">
         <v>39</v>
       </c>
-      <c r="G6" t="n" s="113">
+      <c r="G6" t="n" s="137">
         <v>11.0</v>
       </c>
-      <c r="H6" t="s" s="114">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="115">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="116">
+      <c r="H6" t="s" s="138">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="139">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="140">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="117">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n" s="141">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="142">
         <v>4.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="143">
         <v>11.0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="144">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="118">
+      <c r="E7" t="s" s="145">
         <v>41</v>
       </c>
-      <c r="F7" t="s" s="119">
+      <c r="F7" t="s" s="146">
         <v>39</v>
       </c>
-      <c r="G7" t="n" s="120">
+      <c r="G7" t="n" s="147">
         <v>11.0</v>
       </c>
-      <c r="H7" t="s" s="121">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="122">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="123">
+      <c r="H7" t="s" s="148">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="149">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="150">
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="124">
-        <v>3.0</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n" s="151">
+        <v>3.0</v>
+      </c>
+      <c r="B8" t="n" s="152">
         <v>4.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="153">
         <v>11.0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="154">
         <v>36</v>
       </c>
-      <c r="E8" t="s" s="125">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="126">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="127">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s" s="128">
+      <c r="E8" t="s" s="155">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="156">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s" s="157">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s" s="158">
         <v>41</v>
       </c>
-      <c r="I8" t="s" s="129">
+      <c r="I8" t="s" s="159">
         <v>39</v>
       </c>
-      <c r="J8" t="n" s="130">
+      <c r="J8" t="n" s="160">
         <v>21.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="131">
-        <v>3.0</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n" s="161">
+        <v>3.0</v>
+      </c>
+      <c r="B9" t="n" s="162">
         <v>5.0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="n" s="163">
         <v>11.0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="164">
         <v>37</v>
       </c>
-      <c r="E9" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="133">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s" s="134">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s" s="135">
+      <c r="E9" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="166">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s" s="167">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s" s="168">
         <v>42</v>
       </c>
-      <c r="I9" t="s" s="136">
+      <c r="I9" t="s" s="169">
         <v>39</v>
       </c>
-      <c r="J9" t="n" s="137">
+      <c r="J9" t="n" s="170">
         <v>21.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="138">
-        <v>3.0</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n" s="171">
+        <v>3.0</v>
+      </c>
+      <c r="B10" t="n" s="172">
         <v>5.0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="n" s="173">
         <v>11.0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="174">
         <v>36</v>
       </c>
-      <c r="E10" t="s" s="139">
+      <c r="E10" t="s" s="175">
         <v>42</v>
       </c>
-      <c r="F10" t="s" s="140">
+      <c r="F10" t="s" s="176">
         <v>39</v>
       </c>
-      <c r="G10" t="n" s="141">
+      <c r="G10" t="n" s="177">
         <v>11.0</v>
       </c>
-      <c r="H10" t="s" s="142">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="143">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s" s="144">
+      <c r="H10" t="s" s="178">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s" s="179">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="180">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="145">
+      <c r="A11" t="n" s="181">
         <v>1.0</v>
       </c>
       <c r="B11" t="n">
@@ -1901,7 +2153,7 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="n" s="146">
+      <c r="G11" t="n" s="182">
         <v>11.0</v>
       </c>
       <c r="H11" t="s">
@@ -1910,12 +2162,12 @@
       <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" t="n" s="147">
+      <c r="J11" t="n" s="183">
         <v>21.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="148">
+      <c r="A12" t="n" s="184">
         <v>1.0</v>
       </c>
       <c r="B12" t="n">
@@ -1933,7 +2185,7 @@
       <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="n" s="149">
+      <c r="G12" t="n" s="185">
         <v>11.0</v>
       </c>
       <c r="H12" t="s">
@@ -1942,7 +2194,7 @@
       <c r="I12" t="s">
         <v>39</v>
       </c>
-      <c r="J12" t="n" s="150">
+      <c r="J12" t="n" s="186">
         <v>21.0</v>
       </c>
     </row>
@@ -2748,7 +3000,7 @@
       <c r="A2" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="C2" t="s" s="2">
@@ -2774,7 +3026,7 @@
       <c r="A3" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="C3" t="s" s="2">
@@ -2800,7 +3052,7 @@
       <c r="A4" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="C4" t="s" s="2">
@@ -2826,7 +3078,7 @@
       <c r="A5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="C5" t="s" s="2">
@@ -3212,7 +3464,7 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="D5" t="s" s="2">
@@ -3238,7 +3490,7 @@
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="D6" t="s" s="2">
@@ -3264,7 +3516,7 @@
       <c r="B7" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="D7" t="s" s="2">
@@ -3290,7 +3542,7 @@
       <c r="B8" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="D8" t="s" s="2">
@@ -3670,132 +3922,132 @@
       <c r="A4" t="n" s="51">
         <v>3.0</v>
       </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="n" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s" s="53">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="54">
         <v>32</v>
       </c>
-      <c r="E4" t="s" s="52">
+      <c r="E4" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="53">
+      <c r="F4" t="s" s="56">
         <v>17</v>
       </c>
-      <c r="G4" t="n" s="54">
+      <c r="G4" t="n" s="57">
         <v>13.0</v>
       </c>
-      <c r="H4" t="s" s="55">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="56">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="57">
+      <c r="H4" t="s" s="58">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="59">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="60">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n" s="62">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="63">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="64">
         <v>33</v>
       </c>
-      <c r="E5" t="s" s="59">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="60">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="61">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s" s="62">
+      <c r="E5" t="s" s="65">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="67">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="68">
         <v>19</v>
       </c>
-      <c r="I5" t="s" s="63">
+      <c r="I5" t="s" s="69">
         <v>20</v>
       </c>
-      <c r="J5" t="n" s="64">
+      <c r="J5" t="n" s="70">
         <v>24.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n" s="71">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="72">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="73">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="74">
         <v>32</v>
       </c>
-      <c r="E6" t="s" s="66">
+      <c r="E6" t="s" s="75">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="67">
+      <c r="F6" t="s" s="76">
         <v>22</v>
       </c>
-      <c r="G6" t="n" s="68">
+      <c r="G6" t="n" s="77">
         <v>15.0</v>
       </c>
-      <c r="H6" t="s" s="69">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="70">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="71">
+      <c r="H6" t="s" s="78">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="80">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="72">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n" s="81">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="82">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="83">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="84">
         <v>33</v>
       </c>
-      <c r="E7" t="s" s="73">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="74">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="75">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s" s="76">
+      <c r="E7" t="s" s="85">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="86">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s" s="87">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s" s="88">
         <v>23</v>
       </c>
-      <c r="I7" t="s" s="77">
+      <c r="I7" t="s" s="89">
         <v>24</v>
       </c>
-      <c r="J7" t="n" s="78">
+      <c r="J7" t="n" s="90">
         <v>26.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="79">
+      <c r="A8" t="n" s="91">
         <v>1.0</v>
       </c>
       <c r="B8" t="n">
@@ -3813,7 +4065,7 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="n" s="80">
+      <c r="G8" t="n" s="92">
         <v>15.0</v>
       </c>
       <c r="H8" t="s">
@@ -3822,7 +4074,7 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="n" s="81">
+      <c r="J8" t="n" s="93">
         <v>88.0</v>
       </c>
     </row>
